--- a/databases/database_real_xor_Cu_Cd.xlsx
+++ b/databases/database_real_xor_Cu_Cd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\programs\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8121B0B-3C17-41B3-969D-15792AE662C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56915922-B999-453D-9DE9-9E240DB1175A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9024" activeTab="3" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotors" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -331,9 +331,6 @@
     <t>Promotor associated with Ferric-chelate reductase</t>
   </si>
   <si>
-    <t>van de Mortrel et al., Plant, Cell, and Environment, 2008</t>
-  </si>
-  <si>
     <t>AT1G01580</t>
   </si>
   <si>
@@ -655,6 +652,12 @@
   </si>
   <si>
     <t>notes: These expression profiles often apply to seedlings or pre-flowering plants, often specifically the root tissue</t>
+  </si>
+  <si>
+    <t>Suzuki, Koizumi, and Sano, Plant, Cell, and Environment, 2001.</t>
+  </si>
+  <si>
+    <t>van de Mortel et al., Plant, Cell, and Environment, 2008</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC0B67-C143-4E31-A58F-929298EF32F4}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F19:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,10 +1077,10 @@
         <v>47</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1085,7 +1088,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1109,7 +1112,7 @@
         <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1117,7 +1120,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1134,6 +1137,9 @@
       <c r="H3" t="s">
         <v>41</v>
       </c>
+      <c r="I3" t="s">
+        <v>186</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1149,7 +1155,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1166,6 +1172,9 @@
       <c r="H4" t="s">
         <v>46</v>
       </c>
+      <c r="I4" t="s">
+        <v>186</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1181,7 +1190,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1193,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>55</v>
@@ -1213,10 +1222,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1228,27 +1237,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s">
         <v>113</v>
-      </c>
-      <c r="L6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1260,22 +1272,22 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s">
         <v>109</v>
-      </c>
-      <c r="L7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1283,7 +1295,7 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1295,10 +1307,13 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>186</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>49</v>
@@ -1315,7 +1330,7 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1353,7 +1368,7 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1365,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
         <v>68</v>
@@ -1388,7 +1403,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1400,19 +1415,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>77</v>
@@ -1420,10 +1435,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1438,30 +1453,30 @@
         <v>42</v>
       </c>
       <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
         <v>87</v>
       </c>
-      <c r="H12" t="s">
-        <v>88</v>
-      </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1473,30 +1488,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1508,33 +1523,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
         <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1546,33 +1561,33 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1584,33 +1599,33 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1622,30 +1637,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
         <v>123</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" t="s">
         <v>124</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1657,30 +1672,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" t="s">
         <v>168</v>
       </c>
-      <c r="I18" t="s">
-        <v>169</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s">
         <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1692,30 +1707,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" t="s">
         <v>127</v>
       </c>
-      <c r="H19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>124</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1727,30 +1742,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" t="s">
         <v>130</v>
       </c>
-      <c r="H20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>124</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1762,22 +1777,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" t="s">
-        <v>165</v>
-      </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1834,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1854,16 +1869,16 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1880,16 +1895,16 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
         <v>154</v>
-      </c>
-      <c r="H3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1906,94 +1921,94 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
         <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2100,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10B3961-BE2E-4FDD-8E5E-7097ABFF7922}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2138,10 +2153,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2164,13 +2179,13 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2193,13 +2208,13 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2222,21 +2237,21 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2248,24 +2263,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2277,24 +2292,24 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2306,16 +2321,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,10 +2398,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/databases/database_real_xor_Cu_Cd.xlsx
+++ b/databases/database_real_xor_Cu_Cd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\programs\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56915922-B999-453D-9DE9-9E240DB1175A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5E43B7-5C18-49BC-AB33-BA6401003CFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
@@ -182,12 +182,6 @@
     <t>HSP terminator</t>
   </si>
   <si>
-    <t>Califlower Mosaic Virus (CaMV) 35S promotor generally constitutive in most plants</t>
-  </si>
-  <si>
-    <t>CaMV 35S Promotor</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -217,24 +211,9 @@
     </r>
   </si>
   <si>
-    <t>Promotor associated with protein AAG50970.1 which is Cadmium-induced</t>
-  </si>
-  <si>
     <t>Cd(2)</t>
   </si>
   <si>
-    <t>CdI3-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with protein AAF79287.1 which is Cadmium- and Copper-induced</t>
-  </si>
-  <si>
-    <t>CAO-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with protein AAD01509.1 which is Cadmium-inhibited</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -256,21 +235,9 @@
     <t>Oryza sativa</t>
   </si>
   <si>
-    <t>Promotor associated with exocyst complex component EXO70B1 on chromosome 8</t>
-  </si>
-  <si>
-    <t>Promotor associated with exocyst complex component EXO70B1 on chromosome 11</t>
-  </si>
-  <si>
-    <t>EXO70B1-associated promotor chromosome 11</t>
-  </si>
-  <si>
     <t>Os05g0148900</t>
   </si>
   <si>
-    <t>GSTF1-associated promotor</t>
-  </si>
-  <si>
     <t>Os11g0572200</t>
   </si>
   <si>
@@ -286,9 +253,6 @@
     <t>Cd(1)</t>
   </si>
   <si>
-    <t>CdI10-associated promotor</t>
-  </si>
-  <si>
     <t>At2G36220</t>
   </si>
   <si>
@@ -298,12 +262,6 @@
     <t>Activated by copper 2.3x, inhibited by cadmium 1.43x (devisor) there appears to be no significant cases of Cd activation and Cu inhibition</t>
   </si>
   <si>
-    <t>Promotor associated with glycosyltransferase (GT) chromozome 7</t>
-  </si>
-  <si>
-    <t>GT-associated promotor</t>
-  </si>
-  <si>
     <t>Os07g0201500</t>
   </si>
   <si>
@@ -322,15 +280,9 @@
     <t>Cu</t>
   </si>
   <si>
-    <t>FRO2-associated promotor</t>
-  </si>
-  <si>
     <t>Aboout 4x greater expression in Zn and Cd Exposure</t>
   </si>
   <si>
-    <t>Promotor associated with Ferric-chelate reductase</t>
-  </si>
-  <si>
     <t>AT1G01580</t>
   </si>
   <si>
@@ -349,36 +301,21 @@
     <t>Zn(1);Cd(1)</t>
   </si>
   <si>
-    <t>RSU1-associated promotor</t>
-  </si>
-  <si>
     <t>Zn(1)</t>
   </si>
   <si>
-    <t>Promotr associated with a Ribosomal Protein L13 homolog</t>
-  </si>
-  <si>
     <t>AT5G59520</t>
   </si>
   <si>
-    <t>FRD3-associated promotor</t>
-  </si>
-  <si>
     <t>Anywhere from 4x to 7x less activity from Zn depending on abundance, about 2x less activity from Cd</t>
   </si>
   <si>
     <t>AT3G08040</t>
   </si>
   <si>
-    <t>Promotor associated with MATE efflux family protein, putative</t>
-  </si>
-  <si>
     <t>Zn(2);Cd(1)</t>
   </si>
   <si>
-    <t>Promotor associated with hypothetical protein AT3G13950</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zn(1) </t>
   </si>
   <si>
@@ -386,12 +323,6 @@
   </si>
   <si>
     <t>AT3G13950</t>
-  </si>
-  <si>
-    <t>ZIP4-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with Zinc Ion Protein 4</t>
   </si>
   <si>
     <t>Assuncao et al., PNAS, 2010
@@ -401,9 +332,6 @@
     <t>AT1G10970</t>
   </si>
   <si>
-    <t>ZIP2-associated promotor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cu(1) </t>
   </si>
   <si>
@@ -413,24 +341,12 @@
     <t>Noted in first source that ZIP2 induced by Zn and in second that downregulated in Cu excess. Not sure which would dominate if both present</t>
   </si>
   <si>
-    <t>ZIP5-associated promotor</t>
-  </si>
-  <si>
     <t>Assuncao et al., PNAS, 2010</t>
   </si>
   <si>
     <t>AT1G05300</t>
   </si>
   <si>
-    <t>strong upregulation of this promotor by zinc deficiency low leakiness</t>
-  </si>
-  <si>
-    <t>IRT1-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with Fe(II) transporter</t>
-  </si>
-  <si>
     <t>AT4G19690</t>
   </si>
   <si>
@@ -440,9 +356,6 @@
     <t>guessed values from northern blot data</t>
   </si>
   <si>
-    <t>Resposible for transcription of all CaMV genes, often used as strong constitutve promotor in plant synthetic biology</t>
-  </si>
-  <si>
     <t>Zinc</t>
   </si>
   <si>
@@ -459,9 +372,6 @@
   </si>
   <si>
     <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Promotor from the Registry of Standard Biological Parts</t>
   </si>
   <si>
     <t>Zomorrodi and Maranas, European Journal of Operational Research, 2014.</t>
@@ -597,9 +507,6 @@
     <t>P_RM</t>
   </si>
   <si>
-    <t>Promotor engineered to be activated by cI</t>
-  </si>
-  <si>
     <t>Broedel et al. Nature Communications, 2016.</t>
   </si>
   <si>
@@ -658,6 +565,99 @@
   </si>
   <si>
     <t>van de Mortel et al., Plant, Cell, and Environment, 2008</t>
+  </si>
+  <si>
+    <t>CaMV 35S promoter</t>
+  </si>
+  <si>
+    <t>Califlower Mosaic Virus (CaMV) 35S promoter generally constitutive in most plants</t>
+  </si>
+  <si>
+    <t>Resposible for transcription of all CaMV genes, often used as strong constitutve promoter in plant synthetic biology</t>
+  </si>
+  <si>
+    <t>CdI3-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAG50970.1 which is Cadmium-induced</t>
+  </si>
+  <si>
+    <t>CAO-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAD01509.1 which is Cadmium-inhibited</t>
+  </si>
+  <si>
+    <t>EXO70B1-associated promoter chromosome 11</t>
+  </si>
+  <si>
+    <t>promoter associated with exocyst complex component EXO70B1 on chromosome 11</t>
+  </si>
+  <si>
+    <t>IRT1-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Fe(II) transporter</t>
+  </si>
+  <si>
+    <t>ZIP5-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Zinc Ion Protein 4</t>
+  </si>
+  <si>
+    <t>strong upregulation of this promoter by zinc deficiency low leakiness</t>
+  </si>
+  <si>
+    <t>CdI10-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAF79287.1 which is Cadmium- and Copper-induced</t>
+  </si>
+  <si>
+    <t>GSTF1-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with exocyst complex component EXO70B1 on chromosome 8</t>
+  </si>
+  <si>
+    <t>GT-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with glycosyltransferase (GT) chromozome 7</t>
+  </si>
+  <si>
+    <t>FRO2-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Ferric-chelate reductase</t>
+  </si>
+  <si>
+    <t>RSU1-associated promoter</t>
+  </si>
+  <si>
+    <t>FRD3-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with MATE efflux family protein, putative</t>
+  </si>
+  <si>
+    <t>promoter associated with hypothetical protein AT3G13950</t>
+  </si>
+  <si>
+    <t>ZIP4-associated promoter</t>
+  </si>
+  <si>
+    <t>ZIP2-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter from the Registry of Standard Biological Parts</t>
+  </si>
+  <si>
+    <t>promoter engineered to be activated by cI</t>
+  </si>
+  <si>
+    <t>Promoter associated with a Ribosomal Protein L13 homolog</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I21"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,24 +1071,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1100,27 +1100,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1132,30 +1132,30 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1167,30 +1167,30 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1202,30 +1202,30 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1237,30 +1237,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1272,30 +1272,30 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1307,30 +1307,30 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
         <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1342,33 +1342,33 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1380,30 +1380,30 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1415,30 +1415,30 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="I11" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1450,33 +1450,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1488,30 +1488,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1523,33 +1523,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="I14" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1561,33 +1561,33 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1599,33 +1599,33 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1637,30 +1637,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1672,30 +1672,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s">
         <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1707,30 +1707,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1742,30 +1742,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1777,22 +1777,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1849,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1869,16 +1869,16 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1895,16 +1895,16 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1921,94 +1921,94 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2153,10 +2153,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2179,13 +2179,13 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2208,13 +2208,13 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2237,21 +2237,21 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2263,24 +2263,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2292,24 +2292,24 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2321,16 +2321,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,26 +2382,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +2421,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
